--- a/source/_drafts/SpringCloud/计划表.xlsx
+++ b/source/_drafts/SpringCloud/计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18460" yWindow="460" windowWidth="18400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18480" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A2:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/_drafts/SpringCloud/计划表.xlsx
+++ b/source/_drafts/SpringCloud/计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18480" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36900" windowHeight="23540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eureka 应用实例状态覆盖规则" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>服务治理（注册发现）</t>
     <rPh sb="0" eb="1">
@@ -260,6 +261,68 @@
   </si>
   <si>
     <t>Eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownOrStartingRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverrideExistsRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaseExistsRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlwaysMatchInstanceStatusRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>existingLease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusOverrides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* STARTING
+* DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 全部状态</t>
+    <rPh sb="2" eb="3">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* UP
+* OUT_OF_SERVICE
+* 非 Eureka-Server 请求</t>
+    <rPh sb="24" eb="25">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>qing'qiu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,15 +347,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -300,12 +369,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -745,4 +837,80 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>